--- a/ 0512324-0512328-0512333-tinytotalcommander/0512324_0512328_0512333_PhieuDanhGia.xlsx
+++ b/ 0512324-0512328-0512333-tinytotalcommander/0512324_0512328_0512333_PhieuDanhGia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Tự đánh giá khống (Chức năng không làm mà đánh giá)</t>
-  </si>
-  <si>
-    <t>DỰ ĐỊNH</t>
   </si>
   <si>
     <t>F8 thay = Del</t>
@@ -340,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -383,9 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="8"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -705,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -716,96 +707,89 @@
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="57.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="19.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
-      <c r="A3" s="26" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
+    <row r="4" spans="1:6" s="4" customFormat="1">
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -819,16 +803,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -841,13 +822,10 @@
       <c r="D9" s="12">
         <v>0.25</v>
       </c>
-      <c r="E9" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="12">
         <v>2</v>
       </c>
@@ -860,13 +838,10 @@
       <c r="D10" s="12">
         <v>0.25</v>
       </c>
-      <c r="E10" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="12">
         <v>3</v>
       </c>
@@ -879,13 +854,10 @@
       <c r="D11" s="12">
         <v>0.25</v>
       </c>
-      <c r="E11" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="12">
         <v>4</v>
       </c>
@@ -898,13 +870,10 @@
       <c r="D12" s="12">
         <v>0.25</v>
       </c>
-      <c r="E12" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="12">
         <v>5</v>
       </c>
@@ -917,13 +886,10 @@
       <c r="D13" s="12">
         <v>0.25</v>
       </c>
-      <c r="E13" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="12">
         <v>6</v>
       </c>
@@ -936,13 +902,10 @@
       <c r="D14" s="12">
         <v>0.25</v>
       </c>
-      <c r="E14" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="12">
         <v>7</v>
       </c>
@@ -955,13 +918,10 @@
       <c r="D15" s="12">
         <v>0.25</v>
       </c>
-      <c r="E15" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="18">
         <v>8</v>
       </c>
@@ -974,13 +934,10 @@
       <c r="D16" s="18">
         <v>0.25</v>
       </c>
-      <c r="E16" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="18">
         <v>9</v>
       </c>
@@ -993,13 +950,10 @@
       <c r="D17" s="18">
         <v>0.25</v>
       </c>
-      <c r="E17" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="18">
         <v>10</v>
       </c>
@@ -1012,13 +966,10 @@
       <c r="D18" s="18">
         <v>0.25</v>
       </c>
-      <c r="E18" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="18">
         <v>11</v>
       </c>
@@ -1031,13 +982,10 @@
       <c r="D19" s="18">
         <v>0.25</v>
       </c>
-      <c r="E19" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="18">
         <v>12</v>
       </c>
@@ -1050,13 +998,10 @@
       <c r="D20" s="18">
         <v>0.25</v>
       </c>
-      <c r="E20" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1069,13 +1014,10 @@
       <c r="D21" s="21">
         <v>0.25</v>
       </c>
-      <c r="E21" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E21" s="23"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="21">
         <v>14</v>
       </c>
@@ -1088,13 +1030,10 @@
       <c r="D22" s="21">
         <v>0.25</v>
       </c>
-      <c r="E22" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1107,13 +1046,10 @@
       <c r="D23" s="21">
         <v>0.25</v>
       </c>
-      <c r="E23" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E23" s="23"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="21">
         <v>16</v>
       </c>
@@ -1123,14 +1059,13 @@
       <c r="C24" s="21">
         <v>0.25</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="D24" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="23"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1143,13 +1078,10 @@
       <c r="D25" s="21">
         <v>0.25</v>
       </c>
-      <c r="E25" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E25" s="23"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="12">
         <v>18</v>
       </c>
@@ -1162,13 +1094,10 @@
       <c r="D26" s="12">
         <v>0.25</v>
       </c>
-      <c r="E26" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="15">
         <v>19</v>
       </c>
@@ -1179,11 +1108,10 @@
         <v>0.25</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="15">
         <v>20</v>
       </c>
@@ -1196,13 +1124,10 @@
       <c r="D28" s="15">
         <v>0.25</v>
       </c>
-      <c r="E28" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="15">
         <v>21</v>
       </c>
@@ -1215,13 +1140,10 @@
       <c r="D29" s="15">
         <v>0.25</v>
       </c>
-      <c r="E29" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="15">
         <v>22</v>
       </c>
@@ -1232,11 +1154,10 @@
         <v>0.25</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="21">
         <v>23</v>
       </c>
@@ -1247,12 +1168,11 @@
         <v>0.25</v>
       </c>
       <c r="D31" s="23"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="21">
         <v>24</v>
       </c>
@@ -1265,14 +1185,11 @@
       <c r="D32" s="21">
         <v>0.25</v>
       </c>
-      <c r="E32" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="21">
         <v>25</v>
       </c>
@@ -1285,14 +1202,11 @@
       <c r="D33" s="21">
         <v>0.25</v>
       </c>
-      <c r="E33" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E33" s="23"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="21">
         <v>26</v>
       </c>
@@ -1305,14 +1219,11 @@
       <c r="D34" s="21">
         <v>0.25</v>
       </c>
-      <c r="E34" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E34" s="23"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="21">
         <v>27</v>
       </c>
@@ -1323,12 +1234,11 @@
         <v>0.25</v>
       </c>
       <c r="D35" s="23"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="21">
         <v>28</v>
       </c>
@@ -1339,12 +1249,11 @@
         <v>0.25</v>
       </c>
       <c r="D36" s="23"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="21">
         <v>29</v>
       </c>
@@ -1355,12 +1264,11 @@
         <v>0.25</v>
       </c>
       <c r="D37" s="23"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="21">
         <v>30</v>
       </c>
@@ -1371,12 +1279,11 @@
         <v>0.25</v>
       </c>
       <c r="D38" s="23"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="21">
         <v>31</v>
       </c>
@@ -1389,14 +1296,11 @@
       <c r="D39" s="21">
         <v>0.25</v>
       </c>
-      <c r="E39" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E39" s="23"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="21">
         <v>32</v>
       </c>
@@ -1409,14 +1313,11 @@
       <c r="D40" s="21">
         <v>0.25</v>
       </c>
-      <c r="E40" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E40" s="23"/>
       <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="21">
         <v>33</v>
       </c>
@@ -1426,16 +1327,11 @@
       <c r="C41" s="21">
         <v>0.25</v>
       </c>
-      <c r="D41" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="21">
         <v>34</v>
       </c>
@@ -1445,14 +1341,13 @@
       <c r="C42" s="21">
         <v>0.25</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="D42" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="23"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="21">
         <v>35</v>
       </c>
@@ -1465,58 +1360,50 @@
       <c r="D43" s="21">
         <v>0.25</v>
       </c>
-      <c r="E43" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="E43" s="23"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="31" t="s">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="25">
+      <c r="B44" s="29"/>
+      <c r="C44" s="24">
         <f>SUM(C9:C43)</f>
         <v>8.75</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="24">
         <f>SUM(D9:D43)</f>
-        <v>6.5</v>
-      </c>
-      <c r="E44" s="30">
+        <v>6.75</v>
+      </c>
+      <c r="E44" s="24">
         <f>SUM(E9:E43)</f>
-        <v>7</v>
-      </c>
-      <c r="F44" s="25">
-        <f>SUM(F9:F43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="26" t="s">
+      <c r="F44" s="11"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26" t="s">
+      <c r="E46" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="F46" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:9">
       <c r="A47" s="9">
         <v>1</v>
       </c>
@@ -1531,9 +1418,8 @@
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:10">
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="9">
         <v>2</v>
       </c>
@@ -1548,9 +1434,8 @@
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="9">
         <v>3</v>
       </c>
@@ -1565,9 +1450,8 @@
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="9">
         <v>4</v>
       </c>
@@ -1582,9 +1466,8 @@
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="9">
         <v>5</v>
       </c>
@@ -1599,9 +1482,8 @@
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="9">
         <v>6</v>
       </c>
@@ -1616,9 +1498,8 @@
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="9">
         <v>7</v>
       </c>
@@ -1633,9 +1514,8 @@
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="9">
         <v>8</v>
       </c>
@@ -1650,9 +1530,8 @@
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="9">
         <v>9</v>
       </c>
@@ -1666,12 +1545,11 @@
         <v>0.125</v>
       </c>
       <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="F55" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="9">
         <v>10</v>
       </c>
@@ -1686,9 +1564,8 @@
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="9">
         <v>11</v>
       </c>
@@ -1703,9 +1580,8 @@
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="9">
         <v>12</v>
       </c>
@@ -1716,9 +1592,8 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="9">
         <v>13</v>
       </c>
@@ -1729,9 +1604,8 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="9">
         <v>14</v>
       </c>
@@ -1742,9 +1616,8 @@
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="9">
         <v>15</v>
       </c>
@@ -1755,34 +1628,32 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="31" t="s">
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="24">
         <f>SUM(C47:C57)</f>
         <v>70</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="24">
         <f>SUM(D47:D57)</f>
         <v>0.125</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="25">
-        <f>SUM(F47:F56)</f>
+      <c r="E62" s="24">
+        <f>SUM(E47:E56)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="66" spans="2:3" ht="19.5">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="29">
-        <f>F44-F62</f>
+      <c r="C66" s="28">
+        <f>E44-E62</f>
         <v>0</v>
       </c>
     </row>
@@ -1790,7 +1661,7 @@
   <mergeCells count="3">
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
